--- a/Test/Epsilon/MSE1000003.xlsx
+++ b/Test/Epsilon/MSE1000003.xlsx
@@ -426,37 +426,37 @@
         <v>0.1183909255113024</v>
       </c>
       <c r="B1" t="n">
-        <v>0.07481624927202403</v>
+        <v>0.06249920105014192</v>
       </c>
       <c r="C1" t="n">
-        <v>0.04622513255923242</v>
+        <v>0.04211768897096661</v>
       </c>
       <c r="D1" t="n">
-        <v>0.0407913296636607</v>
+        <v>0.03138061346032128</v>
       </c>
       <c r="E1" t="n">
-        <v>0.02861745548589225</v>
+        <v>0.02563543052678777</v>
       </c>
       <c r="F1" t="n">
-        <v>0.02228514372684635</v>
+        <v>0.02216420006319597</v>
       </c>
       <c r="G1" t="n">
-        <v>0.02095034255123604</v>
+        <v>0.02185131049075954</v>
       </c>
       <c r="H1" t="n">
-        <v>0.01966607657804454</v>
+        <v>0.02167897556780986</v>
       </c>
       <c r="I1" t="n">
-        <v>0.01927087167952407</v>
+        <v>0.02140838453929221</v>
       </c>
       <c r="J1" t="n">
-        <v>0.01929056185592732</v>
+        <v>0.02137532406399228</v>
       </c>
       <c r="K1" t="n">
-        <v>0.01887964981717652</v>
+        <v>0.01996403720212395</v>
       </c>
       <c r="L1" t="n">
-        <v>0.01790568831934239</v>
+        <v>0.01884935914222093</v>
       </c>
     </row>
   </sheetData>
